--- a/biology/Biochimie/Acide_carboxyglutamique/Acide_carboxyglutamique.xlsx
+++ b/biology/Biochimie/Acide_carboxyglutamique/Acide_carboxyglutamique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’acide carboxyglutamique, souvent appelé acide gamma-carboxyglutamique et abrégé conventionnellement en Gla, est un acide α-aminé rare présent dans certaines protéines, non pas à l'issue de la biosynthèse des protéines, mais à la suite d'une modification post-traductionnelle intervenant sur des résidus glutamate une fois la protéine synthétisée. Ces modifications, qui créent une affinité pour les cations Ca2+, interviennent notamment sur les facteurs de coagulation et d'autres protéines de la cascade de réactions provoquant la coagulation sanguine. Les différentes formes de vitamine K permettent la gamma-carboxylation de résidus glutamate des facteurs de coagulation II, VII, IX et X[2].
+L’acide carboxyglutamique, souvent appelé acide gamma-carboxyglutamique et abrégé conventionnellement en Gla, est un acide α-aminé rare présent dans certaines protéines, non pas à l'issue de la biosynthèse des protéines, mais à la suite d'une modification post-traductionnelle intervenant sur des résidus glutamate une fois la protéine synthétisée. Ces modifications, qui créent une affinité pour les cations Ca2+, interviennent notamment sur les facteurs de coagulation et d'autres protéines de la cascade de réactions provoquant la coagulation sanguine. Les différentes formes de vitamine K permettent la gamma-carboxylation de résidus glutamate des facteurs de coagulation II, VII, IX et X.
 </t>
         </is>
       </c>
